--- a/docs/Logboek-mc-dev-ctf 1.xlsx
+++ b/docs/Logboek-mc-dev-ctf 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D9A3FB4-043F-43D1-AA2C-64BB89C91FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D88DF22-9E6B-4174-BD4B-D06F18F27CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8D136E9-6B31-42AB-977B-0D488AABD1F0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Logboek</t>
   </si>
@@ -147,13 +147,16 @@
   </si>
   <si>
     <t>Kit bugs gefixt en session messages toegevoegd</t>
+  </si>
+  <si>
+    <t>Flag bug fixes en verwijderd dat je moet eten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,10 +690,10 @@
   <dimension ref="B2:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="28.5703125" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
@@ -699,7 +702,7 @@
     <col min="7" max="7" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="45.75" customHeight="1">
+    <row r="2" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -709,7 +712,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
     </row>
-    <row r="3" spans="2:7" ht="26.25">
+    <row r="3" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
@@ -723,7 +726,7 @@
       </c>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -743,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
         <v>45913</v>
       </c>
@@ -763,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>9</v>
       </c>
@@ -783,7 +786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>45928</v>
       </c>
@@ -803,7 +806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>45933</v>
       </c>
@@ -819,7 +822,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>18</v>
       </c>
@@ -835,7 +838,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>45967</v>
       </c>
@@ -851,7 +854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>45967</v>
       </c>
@@ -867,7 +870,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>45972</v>
       </c>
@@ -883,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>45975</v>
       </c>
@@ -899,7 +902,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="4"/>
       <c r="D14" s="6"/>
@@ -911,7 +914,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="D15" s="5"/>
@@ -923,7 +926,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6"/>
@@ -935,7 +938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="5"/>
@@ -947,7 +950,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="4"/>
       <c r="D18" s="6"/>
@@ -959,7 +962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
@@ -971,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="4"/>
       <c r="D20" s="6"/>
@@ -983,7 +986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
@@ -995,15 +998,19 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="F22" s="9">
+        <v>45975</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
       <c r="D23" s="5"/>
@@ -1011,7 +1018,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="4"/>
       <c r="D24" s="6"/>
@@ -1019,7 +1026,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="5"/>
@@ -1027,7 +1034,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6"/>
@@ -1035,7 +1042,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
       <c r="D27" s="5"/>
@@ -1043,7 +1050,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
@@ -1051,7 +1058,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
       <c r="D29" s="5"/>
@@ -1059,7 +1066,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="4"/>
       <c r="D30" s="6"/>
@@ -1067,7 +1074,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
@@ -1075,7 +1082,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="4"/>
       <c r="D32" s="6"/>
@@ -1083,7 +1090,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="3"/>
       <c r="D33" s="5"/>
@@ -1091,7 +1098,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="4"/>
       <c r="D34" s="6"/>
@@ -1099,7 +1106,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="3"/>
       <c r="D35" s="5"/>
@@ -1107,7 +1114,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="4"/>
       <c r="D36" s="6"/>
@@ -1115,7 +1122,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
       <c r="D37" s="5"/>
@@ -1123,7 +1130,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="4"/>
       <c r="D38" s="6"/>
@@ -1131,7 +1138,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="3"/>
       <c r="D39" s="5"/>
@@ -1139,7 +1146,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
       <c r="C40" s="4"/>
       <c r="D40" s="6"/>
@@ -1147,7 +1154,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="3"/>
       <c r="D41" s="5"/>
@@ -1155,7 +1162,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="4"/>
       <c r="D42" s="6"/>
@@ -1163,7 +1170,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="3"/>
       <c r="D43" s="5"/>
@@ -1171,7 +1178,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
       <c r="C44" s="4"/>
       <c r="D44" s="6"/>
@@ -1179,7 +1186,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="3"/>
       <c r="D45" s="5"/>
@@ -1187,7 +1194,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="4"/>
       <c r="D46" s="6"/>
@@ -1195,7 +1202,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
       <c r="D47" s="5"/>
@@ -1203,7 +1210,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
       <c r="C48" s="4"/>
       <c r="D48" s="6"/>
@@ -1211,7 +1218,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="3"/>
       <c r="D49" s="5"/>
@@ -1219,7 +1226,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
       <c r="C50" s="4"/>
       <c r="D50" s="6"/>
@@ -1227,7 +1234,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="3"/>
       <c r="D51" s="5"/>
@@ -1235,7 +1242,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
       <c r="C52" s="4"/>
       <c r="D52" s="6"/>
@@ -1243,7 +1250,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="3"/>
       <c r="D53" s="5"/>
@@ -1251,7 +1258,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
       <c r="C54" s="4"/>
       <c r="D54" s="6"/>
@@ -1259,7 +1266,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="3"/>
       <c r="D55" s="5"/>
@@ -1267,7 +1274,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
       <c r="C56" s="4"/>
       <c r="D56" s="6"/>
@@ -1275,7 +1282,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="3"/>
       <c r="D57" s="5"/>
@@ -1283,7 +1290,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
       <c r="C58" s="4"/>
       <c r="D58" s="6"/>
@@ -1291,7 +1298,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="3"/>
       <c r="D59" s="5"/>
@@ -1299,7 +1306,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="6"/>
@@ -1307,7 +1314,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="3"/>
       <c r="D61" s="5"/>
@@ -1315,7 +1322,7 @@
       <c r="F61" s="5"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
       <c r="C62" s="4"/>
       <c r="D62" s="6"/>
@@ -1323,7 +1330,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="3"/>
       <c r="D63" s="5"/>
@@ -1331,7 +1338,7 @@
       <c r="F63" s="5"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
       <c r="C64" s="4"/>
       <c r="D64" s="6"/>
@@ -1339,7 +1346,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="3"/>
       <c r="D65" s="5"/>
@@ -1347,7 +1354,7 @@
       <c r="F65" s="5"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="6"/>
@@ -1355,7 +1362,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="3"/>
       <c r="D67" s="5"/>
@@ -1363,7 +1370,7 @@
       <c r="F67" s="5"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
       <c r="C68" s="4"/>
       <c r="D68" s="6"/>
@@ -1371,7 +1378,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="3"/>
       <c r="D69" s="5"/>
@@ -1379,7 +1386,7 @@
       <c r="F69" s="5"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
       <c r="C70" s="4"/>
       <c r="D70" s="6"/>
@@ -1387,7 +1394,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="3"/>
       <c r="D71" s="5"/>
@@ -1395,7 +1402,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
       <c r="C72" s="4"/>
       <c r="D72" s="6"/>
@@ -1403,7 +1410,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="3"/>
       <c r="D73" s="5"/>
@@ -1411,7 +1418,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
       <c r="C74" s="4"/>
       <c r="D74" s="6"/>
@@ -1419,7 +1426,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="3"/>
       <c r="D75" s="5"/>
@@ -1427,7 +1434,7 @@
       <c r="F75" s="5"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
       <c r="C76" s="4"/>
       <c r="D76" s="6"/>
@@ -1435,7 +1442,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="3"/>
       <c r="D77" s="5"/>
@@ -1443,7 +1450,7 @@
       <c r="F77" s="5"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
       <c r="C78" s="4"/>
       <c r="D78" s="6"/>
@@ -1451,7 +1458,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="3"/>
       <c r="D79" s="5"/>
@@ -1459,7 +1466,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="4"/>
       <c r="D80" s="6"/>
@@ -1467,7 +1474,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="3"/>
       <c r="D81" s="5"/>
@@ -1475,7 +1482,7 @@
       <c r="F81" s="5"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
       <c r="C82" s="4"/>
       <c r="D82" s="6"/>
@@ -1483,7 +1490,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="3"/>
       <c r="D83" s="5"/>
@@ -1491,7 +1498,7 @@
       <c r="F83" s="5"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
       <c r="C84" s="4"/>
       <c r="D84" s="6"/>
@@ -1499,7 +1506,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="3"/>
       <c r="D85" s="5"/>
@@ -1507,7 +1514,7 @@
       <c r="F85" s="5"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="6"/>
@@ -1515,7 +1522,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="3"/>
       <c r="D87" s="5"/>
@@ -1523,7 +1530,7 @@
       <c r="F87" s="5"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
       <c r="C88" s="4"/>
       <c r="D88" s="6"/>
@@ -1531,7 +1538,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="3"/>
       <c r="D89" s="5"/>
@@ -1539,7 +1546,7 @@
       <c r="F89" s="5"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
       <c r="D90" s="6"/>
@@ -1547,7 +1554,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="3"/>
       <c r="D91" s="5"/>
@@ -1555,7 +1562,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
       <c r="D92" s="6"/>
@@ -1563,7 +1570,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="3"/>
       <c r="D93" s="5"/>
@@ -1571,7 +1578,7 @@
       <c r="F93" s="5"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
       <c r="D94" s="6"/>
@@ -1579,7 +1586,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="3"/>
       <c r="D95" s="5"/>
@@ -1587,7 +1594,7 @@
       <c r="F95" s="5"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
       <c r="C96" s="4"/>
       <c r="D96" s="6"/>
@@ -1595,7 +1602,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="3"/>
       <c r="D97" s="5"/>
@@ -1603,7 +1610,7 @@
       <c r="F97" s="5"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="4"/>
       <c r="D98" s="6"/>
@@ -1611,7 +1618,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="3"/>
       <c r="D99" s="5"/>
@@ -1619,7 +1626,7 @@
       <c r="F99" s="5"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="6"/>
